--- a/03_plots_and_tables/skewness_table.xlsx
+++ b/03_plots_and_tables/skewness_table.xlsx
@@ -360,27 +360,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>parameter</t>
+          <t>metric</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>group1</t>
+          <t>statistic</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>group2</t>
+          <t>p.value</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>p.value</t>
+          <t>skewness</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>p.adjusted</t>
+          <t>kurtosis</t>
         </is>
       </c>
     </row>
@@ -390,21 +390,17 @@
           <t>chao1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+      <c r="B2">
+        <v>0.9831685965146433</v>
+      </c>
+      <c r="C2">
+        <v>4.456577449608308e-12</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5375669879776179</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.365618697586333</v>
       </c>
     </row>
     <row r="3">
@@ -413,159 +409,131 @@
           <t>margalef</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+      <c r="B3">
+        <v>0.9915654216324867</v>
+      </c>
+      <c r="C3">
+        <v>1.831012394097842e-07</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3456230145010611</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.991164667551329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>faith_pd</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+          <t>menhinick</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.9915654216324856</v>
+      </c>
+      <c r="C4">
+        <v>1.831012394094628e-07</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.3456230145010621</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.991164667551329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gini_index</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+          <t>fisher_alpha</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.9742692606242939</v>
+      </c>
+      <c r="C5">
+        <v>1.507162582773537e-15</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.6494941059270167</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.44894522765199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+          <t>faith_pd</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>0.9937790716770665</v>
+      </c>
+      <c r="C6">
+        <v>7.792242709334116e-06</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2673681401218156</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.784126191839558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fisher_alpha</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+          <t>gini_index</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.9603464614391094</v>
+      </c>
+      <c r="C7">
+        <v>1.380776758697263e-19</v>
       </c>
       <c r="D7">
-        <v>6.999999999999999e-05</v>
+        <v>-0.7684431482679727</v>
       </c>
       <c r="E7">
-        <v>0.00015</v>
+        <v>3.621481861997031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pielou_evenness</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.9559613904005198</v>
+      </c>
+      <c r="C8">
+        <v>1.214507073121112e-20</v>
       </c>
       <c r="D8">
-        <v>0.00831</v>
+        <v>0.8152889524160589</v>
       </c>
       <c r="E8">
-        <v>0.01558</v>
+        <v>3.493076400458834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>menhinick</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+          <t>pielou_evenness</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0.8938896842597964</v>
+      </c>
+      <c r="C9">
+        <v>1.137254164904602e-30</v>
       </c>
       <c r="D9">
-        <v>0.07199</v>
+        <v>-1.267468071524028</v>
       </c>
       <c r="E9">
-        <v>0.10798</v>
+        <v>4.406554964981563</v>
       </c>
     </row>
     <row r="10">
@@ -574,21 +542,17 @@
           <t>shannon_entropy</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+      <c r="B10">
+        <v>0.9454566936744697</v>
+      </c>
+      <c r="C10">
+        <v>6.894378519487786e-23</v>
       </c>
       <c r="D10">
-        <v>0.14985</v>
+        <v>-0.8837669069447092</v>
       </c>
       <c r="E10">
-        <v>0.20434</v>
+        <v>3.480453292597304</v>
       </c>
     </row>
     <row r="11">
@@ -597,21 +561,17 @@
           <t>simpson</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
+      <c r="B11">
+        <v>0.7173909623916552</v>
+      </c>
+      <c r="C11">
+        <v>2.529407799201836e-44</v>
       </c>
       <c r="D11">
-        <v>0.75357</v>
+        <v>-2.254879019518911</v>
       </c>
       <c r="E11">
-        <v>0.76939</v>
+        <v>8.293303004083995</v>
       </c>
     </row>
   </sheetData>
